--- a/src/models/baselines/XGBoost/results/real-world/IMDb/metrics.xlsx
+++ b/src/models/baselines/XGBoost/results/real-world/IMDb/metrics.xlsx
@@ -456,13 +456,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.652542372881356</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="C2" t="n">
-        <v>0.652542372881356</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8131504922644165</v>
+        <v>0.8230241804608894</v>
       </c>
     </row>
     <row r="3">
@@ -470,13 +470,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6186440677966102</v>
+        <v>0.5847457627118644</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6186440677966102</v>
+        <v>0.5847457627118644</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7901384831764577</v>
+        <v>0.7575678892134587</v>
       </c>
     </row>
     <row r="4">
@@ -490,7 +490,7 @@
         <v>0.6694915254237288</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8373390674023585</v>
+        <v>0.8347357459699231</v>
       </c>
     </row>
     <row r="5">
@@ -498,13 +498,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6949152542372882</v>
+        <v>0.7203389830508474</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6949152542372882</v>
+        <v>0.7203389830508474</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8516634209672184</v>
+        <v>0.8409607270366765</v>
       </c>
     </row>
     <row r="6">
@@ -512,13 +512,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6694915254237288</v>
+        <v>0.635593220338983</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6694915254237288</v>
+        <v>0.635593220338983</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8327207075624797</v>
+        <v>0.8193727685816293</v>
       </c>
     </row>
     <row r="7">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5932203389830508</v>
+        <v>0.6271186440677966</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5932203389830508</v>
+        <v>0.6271186440677966</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7781226333441523</v>
+        <v>0.7866696418911608</v>
       </c>
     </row>
     <row r="8">
@@ -540,13 +540,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.652542372881356</v>
+        <v>0.6440677966101694</v>
       </c>
       <c r="C8" t="n">
-        <v>0.652542372881356</v>
+        <v>0.6440677966101694</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8261353186194959</v>
+        <v>0.8054176133290057</v>
       </c>
     </row>
     <row r="9">
@@ -554,13 +554,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.652542372881356</v>
+        <v>0.635593220338983</v>
       </c>
       <c r="C9" t="n">
-        <v>0.652542372881356</v>
+        <v>0.635593220338983</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8083617332035052</v>
+        <v>0.8035790598290599</v>
       </c>
     </row>
     <row r="10">
@@ -568,13 +568,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6610169491525424</v>
+        <v>0.635593220338983</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6610169491525424</v>
+        <v>0.635593220338983</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8211863031483285</v>
+        <v>0.8216163583252191</v>
       </c>
     </row>
     <row r="11">
@@ -588,7 +588,7 @@
         <v>0.5932203389830508</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7826071080817916</v>
+        <v>0.7820891485448448</v>
       </c>
     </row>
   </sheetData>
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6457627118644067</v>
+        <v>0.6423728813559321</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6457627118644067</v>
+        <v>0.6423728813559321</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8141425267770204</v>
+        <v>0.8075033133181867</v>
       </c>
     </row>
     <row r="3">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03361463227264073</v>
+        <v>0.03970911500747023</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03361463227264073</v>
+        <v>0.03970911500747023</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02446539236474479</v>
+        <v>0.02589547659343668</v>
       </c>
     </row>
   </sheetData>
